--- a/src/test/Docs/Data.xlsx
+++ b/src/test/Docs/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkobinoyvishnu\IdeaProjects\Java\src\test\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2E7F5-E1E1-45B4-886D-67961334182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6F8A8-81E7-4C1D-8DBB-8FB438738532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E771FDD5-7881-4873-9C74-641CB6380430}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Sl.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +48,15 @@
   </si>
   <si>
     <t>Ravi</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
   </si>
 </sst>
 </file>
@@ -425,39 +431,39 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>99</v>

--- a/src/test/Docs/Data.xlsx
+++ b/src/test/Docs/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkobinoyvishnu\IdeaProjects\Java\src\test\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6F8A8-81E7-4C1D-8DBB-8FB438738532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BF50F-44F1-4349-9898-86F6025F8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E771FDD5-7881-4873-9C74-641CB6380430}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
